--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/576568eff6a4bbf9/Rehagro/Result Grãos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{FDA05E1D-3BE3-4DCA-B4EA-AEF54E95A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686819D3-73EB-4257-8598-EDFC50C1DA0A}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{FDA05E1D-3BE3-4DCA-B4EA-AEF54E95A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E39510B-C2AE-4F08-9A34-6D71E6A990C8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planta Daninha" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="96">
   <si>
     <t>Área</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Análise</t>
+  </si>
+  <si>
+    <t>Peso</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,6 +463,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -799,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0815FE-0051-46D2-A61B-8BB360C62F94}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I1" sqref="D1:I1048576"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1199,17 +1205,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E53D6-C15C-4947-AEB1-9354D0854FF5}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="D43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="97.453125" style="8" customWidth="1"/>
     <col min="5" max="5" width="8.36328125" style="4" customWidth="1"/>
     <col min="6" max="8" width="8.7265625" style="4" customWidth="1"/>
@@ -1239,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>94</v>
@@ -1958,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>8</v>
       </c>
@@ -2003,8 +2009,11 @@
       <c r="H34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>8</v>
       </c>
@@ -2026,8 +2035,11 @@
       <c r="H35" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>45</v>
@@ -2048,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -2073,8 +2085,11 @@
       <c r="I37" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>8</v>
       </c>
@@ -2097,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
@@ -2171,8 +2186,11 @@
       <c r="I41" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>8</v>
       </c>
@@ -2224,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>8</v>
       </c>
@@ -2250,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>8</v>
       </c>
@@ -2298,8 +2316,11 @@
       <c r="H46" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -2321,8 +2342,11 @@
       <c r="H47" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>8</v>
       </c>
@@ -2519,6 +2543,189 @@
       <c r="H56" s="4">
         <v>2</v>
       </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C64" s="3"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C65" s="5"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C66" s="5"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C67" s="5"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C68"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C69"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C70"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C71"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C76"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C78"/>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C119"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/576568eff6a4bbf9/Rehagro/Result Grãos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{FDA05E1D-3BE3-4DCA-B4EA-AEF54E95A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E39510B-C2AE-4F08-9A34-6D71E6A990C8}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{FDA05E1D-3BE3-4DCA-B4EA-AEF54E95A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A44C8857-A16C-4DAC-8B5F-8654B3E31924}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="95">
   <si>
     <t>Área</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>Análise</t>
-  </si>
-  <si>
-    <t>Peso</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E53D6-C15C-4947-AEB1-9354D0854FF5}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1245,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>94</v>

--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D90584-49C1-4F8D-924A-7A2C4E1E5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454597F-7256-4FE4-A868-E8BA4FABD6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planta Daninha" sheetId="3" r:id="rId1"/>
@@ -255,9 +255,6 @@
     <t>Este escape de plantas daninhas durante a colheita ocorreu nos últimos 3 anos ?</t>
   </si>
   <si>
-    <t>O escape acontece na maioria dos talhões?</t>
-  </si>
-  <si>
     <t>A fazenda possui áreas de pousio?</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>SE SIM NA 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O escape acontece na maioria dos talhões?</t>
   </si>
 </sst>
 </file>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0815FE-0051-46D2-A61B-8BB360C62F94}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,13 +833,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -853,7 +853,7 @@
         <v>134</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E2" s="11">
         <v>135</v>
@@ -877,7 +877,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="11">
         <v>136</v>
@@ -901,7 +901,7 @@
         <v>136</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="11">
         <v>137</v>
@@ -925,7 +925,7 @@
         <v>137</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11">
         <v>139</v>
@@ -943,13 +943,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="12">
         <v>138</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11">
         <v>139</v>
@@ -967,13 +967,13 @@
         <v>69</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="12">
         <v>139</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="11">
         <v>140</v>
@@ -991,13 +991,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="12">
         <v>140</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="11">
         <v>141</v>
@@ -1015,13 +1015,13 @@
         <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="12">
         <v>141</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="11">
         <v>142</v>
@@ -1039,13 +1039,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="12">
         <v>142</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="11">
         <v>144</v>
@@ -1063,13 +1063,13 @@
         <v>69</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12">
         <v>143</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="11">
         <v>144</v>
@@ -1087,13 +1087,13 @@
         <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="12">
         <v>144</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="11">
         <v>146</v>
@@ -1111,13 +1111,13 @@
         <v>69</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="12">
         <v>145</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="11">
         <v>146</v>
@@ -1135,13 +1135,13 @@
         <v>69</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12">
         <v>146</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="11">
         <v>147</v>
@@ -1159,13 +1159,13 @@
         <v>69</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="12">
         <v>147</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="11">
         <v>0</v>
@@ -1187,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E53D6-C15C-4947-AEB1-9354D0854FF5}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
@@ -1225,13 +1225,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -1941,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="5">
         <v>28</v>
@@ -1967,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="5">
         <v>29</v>
@@ -1993,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="5">
         <v>30</v>
@@ -2019,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="5">
         <v>31</v>
@@ -2045,7 +2045,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="5">
         <v>32</v>
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2245,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2271,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">

--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454597F-7256-4FE4-A868-E8BA4FABD6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6CBA34-D43D-4DCD-AFD2-00FB89571263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="96">
   <si>
     <t>Área</t>
   </si>
@@ -318,7 +318,13 @@
     <t>SE SIM NA 35</t>
   </si>
   <si>
-    <t xml:space="preserve"> O escape acontece na maioria dos talhões?</t>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ocorre escape de plantas daninhas na maioria dos talhões da fazenda?</t>
   </si>
 </sst>
 </file>
@@ -797,7 +803,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -853,7 +859,7 @@
         <v>134</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="11">
         <v>135</v>
@@ -865,6 +871,9 @@
       <c r="H2" s="10">
         <v>3</v>
       </c>
+      <c r="I2" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
@@ -889,6 +898,9 @@
       <c r="H3" s="10">
         <v>4</v>
       </c>
+      <c r="I3" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
@@ -913,6 +925,9 @@
       <c r="H4" s="10">
         <v>5</v>
       </c>
+      <c r="I4" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -937,6 +952,9 @@
       <c r="H5" s="10">
         <v>5</v>
       </c>
+      <c r="I5" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -961,6 +979,9 @@
       <c r="H6" s="10">
         <v>5</v>
       </c>
+      <c r="I6" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -985,6 +1006,9 @@
       <c r="H7" s="10">
         <v>5</v>
       </c>
+      <c r="I7" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
@@ -1009,6 +1033,9 @@
       <c r="H8" s="10">
         <v>5</v>
       </c>
+      <c r="I8" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -1033,6 +1060,9 @@
       <c r="H9" s="10">
         <v>5</v>
       </c>
+      <c r="I9" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
@@ -1057,6 +1087,9 @@
       <c r="H10" s="10">
         <v>5</v>
       </c>
+      <c r="I10" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -1081,6 +1114,9 @@
       <c r="H11" s="10">
         <v>4</v>
       </c>
+      <c r="I11" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -1105,6 +1141,9 @@
       <c r="H12" s="10">
         <v>5</v>
       </c>
+      <c r="I12" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -1129,6 +1168,9 @@
       <c r="H13" s="10">
         <v>2</v>
       </c>
+      <c r="I13" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
@@ -1153,6 +1195,9 @@
       <c r="H14" s="10">
         <v>3</v>
       </c>
+      <c r="I14" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
@@ -1176,6 +1221,9 @@
       <c r="G15" s="4"/>
       <c r="H15" s="10">
         <v>4</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6CBA34-D43D-4DCD-AFD2-00FB89571263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47416DF-64E9-46D1-A383-C129E3A3A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
@@ -802,9 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0815FE-0051-46D2-A61B-8BB360C62F94}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -862,10 +860,10 @@
         <v>95</v>
       </c>
       <c r="E2" s="11">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="F2" s="11">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="10">
@@ -889,10 +887,10 @@
         <v>71</v>
       </c>
       <c r="E3" s="11">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="10">
@@ -916,10 +914,10 @@
         <v>72</v>
       </c>
       <c r="E4" s="11">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="F4" s="11">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="10">
@@ -943,10 +941,10 @@
         <v>73</v>
       </c>
       <c r="E5" s="11">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="F5" s="11">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="10">
@@ -970,10 +968,10 @@
         <v>75</v>
       </c>
       <c r="E6" s="11">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="F6" s="11">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="10">
@@ -997,10 +995,10 @@
         <v>77</v>
       </c>
       <c r="E7" s="11">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="F7" s="11">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="10">
@@ -1024,10 +1022,10 @@
         <v>78</v>
       </c>
       <c r="E8" s="11">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="F8" s="11">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="10">
@@ -1051,10 +1049,10 @@
         <v>79</v>
       </c>
       <c r="E9" s="11">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F9" s="11">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="10">
@@ -1078,10 +1076,10 @@
         <v>80</v>
       </c>
       <c r="E10" s="11">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F10" s="11">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="10">
@@ -1105,10 +1103,10 @@
         <v>81</v>
       </c>
       <c r="E11" s="11">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F11" s="11">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="10">
@@ -1132,10 +1130,10 @@
         <v>82</v>
       </c>
       <c r="E12" s="11">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F12" s="11">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="10">
@@ -1159,10 +1157,10 @@
         <v>83</v>
       </c>
       <c r="E13" s="11">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="10">
@@ -1186,10 +1184,10 @@
         <v>84</v>
       </c>
       <c r="E14" s="11">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="F14" s="11">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="10">
@@ -1213,10 +1211,10 @@
         <v>86</v>
       </c>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="10">
@@ -1235,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E53D6-C15C-4947-AEB1-9354D0854FF5}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J1"/>
+    <sheetView topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47416DF-64E9-46D1-A383-C129E3A3A2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F776AC-5234-4AC1-A4D6-405C916E73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planta Daninha" sheetId="3" r:id="rId1"/>
@@ -802,7 +802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0815FE-0051-46D2-A61B-8BB360C62F94}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1210,12 +1212,8 @@
       <c r="D15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="11">
-        <v>15</v>
-      </c>
-      <c r="F15" s="11">
-        <v>15</v>
-      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="4"/>
       <c r="H15" s="10">
         <v>4</v>
@@ -1233,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E53D6-C15C-4947-AEB1-9354D0854FF5}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2686,9 +2684,6 @@
       <c r="E55" s="4">
         <v>56</v>
       </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
       <c r="H55" s="4">
         <v>2</v>
       </c>
@@ -2708,12 +2703,6 @@
       </c>
       <c r="D56" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0</v>
       </c>
       <c r="H56" s="4">
         <v>2</v>

--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F776AC-5234-4AC1-A4D6-405C916E73D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622EC58-47A8-4999-AD8B-884FD7E20AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
@@ -1212,8 +1212,12 @@
       <c r="D15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>-1</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="10">
         <v>4</v>
@@ -1231,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E53D6-C15C-4947-AEB1-9354D0854FF5}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2684,6 +2688,9 @@
       <c r="E55" s="4">
         <v>56</v>
       </c>
+      <c r="F55" s="4">
+        <v>-1</v>
+      </c>
       <c r="H55" s="4">
         <v>2</v>
       </c>
@@ -2703,6 +2710,12 @@
       </c>
       <c r="D56" s="8" t="s">
         <v>68</v>
+      </c>
+      <c r="E56" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>-1</v>
       </c>
       <c r="H56" s="4">
         <v>2</v>

--- a/Teste Chat.xlsx
+++ b/Teste Chat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622EC58-47A8-4999-AD8B-884FD7E20AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88526EAF-2061-4203-94B3-F33CD94B2285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{363D8020-732A-447E-9521-9A1731D252F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planta Daninha" sheetId="3" r:id="rId1"/>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0815FE-0051-46D2-A61B-8BB360C62F94}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,10 +1213,10 @@
         <v>86</v>
       </c>
       <c r="E15" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="10">
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895E53D6-C15C-4947-AEB1-9354D0854FF5}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="C52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2689,7 +2689,7 @@
         <v>56</v>
       </c>
       <c r="F55" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="4">
         <v>2</v>
@@ -2712,10 +2712,10 @@
         <v>68</v>
       </c>
       <c r="E56" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="4">
         <v>2</v>
